--- a/ProjectTemplate.xlsx
+++ b/ProjectTemplate.xlsx
@@ -557,7 +557,7 @@
     <t xml:space="preserve">evidence3-sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">PrashantDATATeam</t>
+    <t xml:space="preserve">TestImage</t>
   </si>
   <si>
     <t xml:space="preserve">IDE</t>
@@ -2149,7 +2149,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.13"/>
@@ -3618,11 +3618,11 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK3" activeCellId="0" sqref="AK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
@@ -4993,7 +4993,7 @@
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B2" s="41" t="str">
         <f aca="false">'Project upload'!A3</f>
-        <v>PrashantDATATeam</v>
+        <v>TestImage</v>
       </c>
       <c r="C2" s="41" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("GOOGLETRANSLATE(B2,""en"",C1)"),"पोषण मास्टरशेफ प्रतियोगिता")</f>
@@ -18929,7 +18929,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
@@ -19081,7 +19081,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.63"/>
@@ -19161,7 +19161,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -19298,7 +19298,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="53.63"/>
@@ -20919,7 +20919,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>

--- a/ProjectTemplate.xlsx
+++ b/ProjectTemplate.xlsx
@@ -557,7 +557,7 @@
     <t xml:space="preserve">evidence3-sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">TestImage</t>
+    <t xml:space="preserve">DemoForInnovation</t>
   </si>
   <si>
     <t xml:space="preserve">IDE</t>
@@ -2149,7 +2149,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.13"/>
@@ -3618,11 +3618,11 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK3" activeCellId="0" sqref="AK3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
@@ -4993,7 +4993,7 @@
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B2" s="41" t="str">
         <f aca="false">'Project upload'!A3</f>
-        <v>TestImage</v>
+        <v>DemoForInnovation</v>
       </c>
       <c r="C2" s="41" t="str">
         <f aca="false">IFERROR(__xludf.dummyfunction("GOOGLETRANSLATE(B2,""en"",C1)"),"पोषण मास्टरशेफ प्रतियोगिता")</f>
@@ -18929,7 +18929,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
@@ -19081,7 +19081,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.63"/>
@@ -19161,7 +19161,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -19298,7 +19298,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="53.63"/>
@@ -20919,7 +20919,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>
